--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.9536506204696</v>
+        <v>398.7697887065148</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.9841648390992</v>
+        <v>545.6144173897172</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.4200620895614</v>
+        <v>493.5417431686863</v>
       </c>
       <c r="AD2" t="n">
-        <v>325953.6506204696</v>
+        <v>398769.7887065148</v>
       </c>
       <c r="AE2" t="n">
-        <v>445984.1648390992</v>
+        <v>545614.4173897172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421147738986544e-06</v>
+        <v>2.402520764708738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>403420.0620895614</v>
+        <v>493541.7431686862</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.5866500509385</v>
+        <v>303.9029630778343</v>
       </c>
       <c r="AB3" t="n">
-        <v>330.5495126503323</v>
+        <v>415.8134413355885</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.0023310922376</v>
+        <v>376.1287900923494</v>
       </c>
       <c r="AD3" t="n">
-        <v>241586.6500509385</v>
+        <v>303902.9630778343</v>
       </c>
       <c r="AE3" t="n">
-        <v>330549.5126503323</v>
+        <v>415813.4413355886</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.786489028476851e-06</v>
+        <v>3.020148341438986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.34548611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>299002.3310922376</v>
+        <v>376128.7900923494</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.8326301023779</v>
+        <v>267.9903919798563</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.3117263695572</v>
+        <v>366.676277208516</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.1275896775448</v>
+        <v>331.6812079451218</v>
       </c>
       <c r="AD4" t="n">
-        <v>215832.6301023779</v>
+        <v>267990.3919798563</v>
       </c>
       <c r="AE4" t="n">
-        <v>295311.7263695572</v>
+        <v>366676.277208516</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.926981567541645e-06</v>
+        <v>3.25765794943409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.51215277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>267127.5896775448</v>
+        <v>331681.2079451218</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>206.4316720147676</v>
+        <v>258.4188416916536</v>
       </c>
       <c r="AB5" t="n">
-        <v>282.4489207730953</v>
+        <v>353.5800598372006</v>
       </c>
       <c r="AC5" t="n">
-        <v>255.4923921941442</v>
+        <v>319.8348751790682</v>
       </c>
       <c r="AD5" t="n">
-        <v>206431.6720147676</v>
+        <v>258418.8416916536</v>
       </c>
       <c r="AE5" t="n">
-        <v>282448.9207730953</v>
+        <v>353580.0598372006</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.012341463763602e-06</v>
+        <v>3.401963089231082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.06944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>255492.3921941442</v>
+        <v>319834.8751790682</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>190.9917731941551</v>
+        <v>253.307996712496</v>
       </c>
       <c r="AB6" t="n">
-        <v>261.323370046482</v>
+        <v>346.5871762619861</v>
       </c>
       <c r="AC6" t="n">
-        <v>236.3830343789754</v>
+        <v>313.5093825978027</v>
       </c>
       <c r="AD6" t="n">
-        <v>190991.7731941551</v>
+        <v>253307.996712496</v>
       </c>
       <c r="AE6" t="n">
-        <v>261323.370046482</v>
+        <v>346587.1762619861</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.045649796251633e-06</v>
+        <v>3.458272477935022e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.904513888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>236383.0343789754</v>
+        <v>313509.3825978027</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.5763440650845</v>
+        <v>237.6487650879879</v>
       </c>
       <c r="AB7" t="n">
-        <v>253.9137410002196</v>
+        <v>325.1615247168025</v>
       </c>
       <c r="AC7" t="n">
-        <v>229.6805699294062</v>
+        <v>294.1285651649936</v>
       </c>
       <c r="AD7" t="n">
-        <v>185576.3440650845</v>
+        <v>237648.7650879879</v>
       </c>
       <c r="AE7" t="n">
-        <v>253913.7410002196</v>
+        <v>325161.5247168025</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.077464272202009e-06</v>
+        <v>3.512056428042569e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>229680.5699294062</v>
+        <v>294128.5651649936</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>184.0503451804202</v>
+        <v>236.1227662033236</v>
       </c>
       <c r="AB8" t="n">
-        <v>251.8258020039035</v>
+        <v>323.0735857204864</v>
       </c>
       <c r="AC8" t="n">
-        <v>227.7919009004571</v>
+        <v>292.2398961360445</v>
       </c>
       <c r="AD8" t="n">
-        <v>184050.3451804202</v>
+        <v>236122.7662033236</v>
       </c>
       <c r="AE8" t="n">
-        <v>251825.8020039035</v>
+        <v>323073.5857204864</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.088201366066407e-06</v>
+        <v>3.530208017954141e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.704861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>227791.9009004571</v>
+        <v>292239.8961360445</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.926507257961</v>
+        <v>332.4751413104103</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.3794026123056</v>
+        <v>454.9071561089399</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.176175415637</v>
+        <v>411.4914555961054</v>
       </c>
       <c r="AD2" t="n">
-        <v>261926.507257961</v>
+        <v>332475.1413104103</v>
       </c>
       <c r="AE2" t="n">
-        <v>358379.4026123056</v>
+        <v>454907.1561089399</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.634063649726654e-06</v>
+        <v>2.829856734251626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.82986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>324176.175415637</v>
+        <v>411491.4555961054</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.8225356822501</v>
+        <v>265.2806018908418</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.2472294528613</v>
+        <v>362.9686228612249</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.5008272034194</v>
+        <v>328.3274069250106</v>
       </c>
       <c r="AD3" t="n">
-        <v>204822.5356822501</v>
+        <v>265280.6018908418</v>
       </c>
       <c r="AE3" t="n">
-        <v>280247.2294528614</v>
+        <v>362968.6228612249</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.974239032779705e-06</v>
+        <v>3.418969403590016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.61631944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>253500.8272034194</v>
+        <v>328327.4069250106</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.2722196958869</v>
+        <v>242.6449450499037</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.3928922706063</v>
+        <v>331.9975185565958</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.5911846574948</v>
+        <v>300.3121413470969</v>
       </c>
       <c r="AD4" t="n">
-        <v>182272.2196958869</v>
+        <v>242644.9450499037</v>
       </c>
       <c r="AE4" t="n">
-        <v>249392.8922706063</v>
+        <v>331997.5185565958</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.104171154884224e-06</v>
+        <v>3.643984684233818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.965277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>225591.1846574948</v>
+        <v>300312.1413470969</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.0694873657589</v>
+        <v>225.5223265850589</v>
       </c>
       <c r="AB5" t="n">
-        <v>239.5377961344062</v>
+        <v>308.5695965763936</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.6766450648162</v>
+        <v>279.1201473593827</v>
       </c>
       <c r="AD5" t="n">
-        <v>175069.4873657589</v>
+        <v>225522.3265850589</v>
       </c>
       <c r="AE5" t="n">
-        <v>239537.7961344062</v>
+        <v>308569.5965763936</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.159901193504784e-06</v>
+        <v>3.740497463963588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.704861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>216676.6450648162</v>
+        <v>279120.1473593827</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.9328586721943</v>
+        <v>222.3856978914943</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.2461223775815</v>
+        <v>304.2779228195689</v>
       </c>
       <c r="AC6" t="n">
-        <v>212.7945626279396</v>
+        <v>275.2380649225061</v>
       </c>
       <c r="AD6" t="n">
-        <v>171932.8586721943</v>
+        <v>222385.6978914943</v>
       </c>
       <c r="AE6" t="n">
-        <v>235246.1223775815</v>
+        <v>304277.9228195689</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.179001046428901e-06</v>
+        <v>3.773574417501824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>212794.5626279396</v>
+        <v>275238.064922506</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.4190677575139</v>
+        <v>203.9106444750695</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.7559574617466</v>
+        <v>278.9995396733966</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.0690731005566</v>
+        <v>252.3722151853629</v>
       </c>
       <c r="AD2" t="n">
-        <v>158419.0677575139</v>
+        <v>203910.6444750695</v>
       </c>
       <c r="AE2" t="n">
-        <v>216755.9574617466</v>
+        <v>278999.5396733966</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332240163396779e-06</v>
+        <v>4.413100263253381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>196069.0731005566</v>
+        <v>252372.2151853629</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.3163862238113</v>
+        <v>187.8932142873875</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.7235581871741</v>
+        <v>257.0837850514733</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.1394150900757</v>
+        <v>232.5480694255942</v>
       </c>
       <c r="AD3" t="n">
-        <v>142316.3862238113</v>
+        <v>187893.2142873875</v>
       </c>
       <c r="AE3" t="n">
-        <v>194723.5581871741</v>
+        <v>257083.7850514734</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.445566358561312e-06</v>
+        <v>4.627537811136832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.565972222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>176139.4150900757</v>
+        <v>232548.0694255942</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.4116761045683</v>
+        <v>242.3061199238306</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.6884350320036</v>
+        <v>331.5339230711934</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.4767668465779</v>
+        <v>299.8927907641608</v>
       </c>
       <c r="AD2" t="n">
-        <v>185411.6761045683</v>
+        <v>242306.1199238306</v>
       </c>
       <c r="AE2" t="n">
-        <v>253688.4350320036</v>
+        <v>331533.9230711934</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.052266104314179e-06</v>
+        <v>3.738783141620577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>229476.7668465779</v>
+        <v>299892.7907641608</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.1645902304905</v>
+        <v>202.6477441253522</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.3030377318603</v>
+        <v>277.271583699683</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.0411337799771</v>
+        <v>250.8091729045786</v>
       </c>
       <c r="AD3" t="n">
-        <v>155164.5902304905</v>
+        <v>202647.7441253522</v>
       </c>
       <c r="AE3" t="n">
-        <v>212303.0377318603</v>
+        <v>277271.5836996831</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330831752651532e-06</v>
+        <v>4.24626925545782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.600694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>192041.1337799771</v>
+        <v>250809.1729045786</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.0814788351063</v>
+        <v>200.5646327299679</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.4528328203081</v>
+        <v>274.4213787881309</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.4629484248948</v>
+        <v>248.2309875494963</v>
       </c>
       <c r="AD4" t="n">
-        <v>153081.4788351062</v>
+        <v>200564.6327299679</v>
       </c>
       <c r="AE4" t="n">
-        <v>209452.8328203081</v>
+        <v>274421.3787881309</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.353463439450846e-06</v>
+        <v>4.287499273774568e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>189462.9484248948</v>
+        <v>248230.9875494963</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.8226226225514</v>
+        <v>177.8358724578874</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.1020161095324</v>
+        <v>243.3228862617514</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.6270166773836</v>
+        <v>220.1004915028161</v>
       </c>
       <c r="AD2" t="n">
-        <v>133822.6226225514</v>
+        <v>177835.8724578874</v>
       </c>
       <c r="AE2" t="n">
-        <v>183102.0161095324</v>
+        <v>243322.8862617514</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495992274115206e-06</v>
+        <v>4.891340647387785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.730902777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>165627.0166773836</v>
+        <v>220100.4915028161</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.5975248635887</v>
+        <v>342.6518533122364</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.2941567243744</v>
+        <v>468.8313824346855</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.5222231703446</v>
+        <v>424.0867733040962</v>
       </c>
       <c r="AD2" t="n">
-        <v>281597.5248635887</v>
+        <v>342651.8533122364</v>
       </c>
       <c r="AE2" t="n">
-        <v>385294.1567243744</v>
+        <v>468831.3824346855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582270228868686e-06</v>
+        <v>2.722266193621931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>348522.2231703446</v>
+        <v>424086.7733040962</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.3871278774267</v>
+        <v>272.3560259629542</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.2291941036655</v>
+        <v>372.6495302223692</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.6255657542203</v>
+        <v>337.084382074846</v>
       </c>
       <c r="AD3" t="n">
-        <v>211387.1278774267</v>
+        <v>272356.0259629542</v>
       </c>
       <c r="AE3" t="n">
-        <v>289229.1941036655</v>
+        <v>372649.5302223691</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.924080034215776e-06</v>
+        <v>3.310343540188817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>261625.5657542203</v>
+        <v>337084.382074846</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.8755957147949</v>
+        <v>249.668876818854</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.1103638289183</v>
+        <v>341.6079718768689</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.1405326144603</v>
+        <v>309.0053864908421</v>
       </c>
       <c r="AD4" t="n">
-        <v>198875.5957147949</v>
+        <v>249668.876818854</v>
       </c>
       <c r="AE4" t="n">
-        <v>272110.3638289183</v>
+        <v>341607.9718768689</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.050069156671141e-06</v>
+        <v>3.527105457696144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>246140.5326144603</v>
+        <v>309005.386490842</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.1465515815882</v>
+        <v>232.0250840316679</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.8527034956512</v>
+        <v>317.466956196251</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.1979893375524</v>
+        <v>287.1683554646465</v>
       </c>
       <c r="AD5" t="n">
-        <v>181146.5515815882</v>
+        <v>232025.0840316679</v>
       </c>
       <c r="AE5" t="n">
-        <v>247852.7034956513</v>
+        <v>317466.956196251</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.114535385710981e-06</v>
+        <v>3.638018393263996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.826388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>224197.9893375524</v>
+        <v>287168.3554646465</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.1109612340763</v>
+        <v>225.9894936841561</v>
       </c>
       <c r="AB6" t="n">
-        <v>239.5945425107361</v>
+        <v>309.2087952113359</v>
       </c>
       <c r="AC6" t="n">
-        <v>216.7279756466332</v>
+        <v>279.6983417737272</v>
       </c>
       <c r="AD6" t="n">
-        <v>175110.9612340764</v>
+        <v>225989.4936841561</v>
       </c>
       <c r="AE6" t="n">
-        <v>239594.5425107361</v>
+        <v>309208.7952113359</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.156077098262265e-06</v>
+        <v>3.709490129027096e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>216727.9756466332</v>
+        <v>279698.3417737272</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.4956609214235</v>
+        <v>226.3741933715033</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.1209055947166</v>
+        <v>309.7351582953164</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.204103376634</v>
+        <v>280.174469503728</v>
       </c>
       <c r="AD7" t="n">
-        <v>175495.6609214235</v>
+        <v>226374.1933715033</v>
       </c>
       <c r="AE7" t="n">
-        <v>240120.9055947166</v>
+        <v>309735.1582953164</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.154856690808282e-06</v>
+        <v>3.707390440937281e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>217204.103376634</v>
+        <v>280174.469503728</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.4265104389603</v>
+        <v>180.960681627344</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.0870614771643</v>
+        <v>247.5983880242509</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.186120873085</v>
+        <v>223.9679453778084</v>
       </c>
       <c r="AD2" t="n">
-        <v>129426.5104389603</v>
+        <v>180960.681627344</v>
       </c>
       <c r="AE2" t="n">
-        <v>177087.0614771643</v>
+        <v>247598.3880242509</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503979105432649e-06</v>
+        <v>5.019627696510496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>160186.120873085</v>
+        <v>223967.9453778084</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.4913599954039</v>
+        <v>281.3768704612963</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.422494371621</v>
+        <v>384.9922476365726</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.3688387685378</v>
+        <v>348.2491278621505</v>
       </c>
       <c r="AD2" t="n">
-        <v>222491.3599954039</v>
+        <v>281376.8704612963</v>
       </c>
       <c r="AE2" t="n">
-        <v>304422.494371621</v>
+        <v>384992.2476365726</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.825348692151545e-06</v>
+        <v>3.232828169802884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.83159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>275368.8387685378</v>
+        <v>348249.1278621505</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.5123471832106</v>
+        <v>234.498354558764</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.8261776430965</v>
+        <v>320.8509940444171</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.6013634961911</v>
+        <v>290.2294254901116</v>
       </c>
       <c r="AD3" t="n">
-        <v>185512.3471832105</v>
+        <v>234498.354558764</v>
       </c>
       <c r="AE3" t="n">
-        <v>253826.1776430965</v>
+        <v>320850.9940444171</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.134462068008258e-06</v>
+        <v>3.780290927701793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.12152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>229601.363496191</v>
+        <v>290229.4254901116</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.6745598921034</v>
+        <v>212.7458186136775</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.9467536562379</v>
+        <v>291.0882147102077</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.5735897985938</v>
+        <v>263.3071640432265</v>
       </c>
       <c r="AD4" t="n">
-        <v>163674.5598921034</v>
+        <v>212745.8186136775</v>
       </c>
       <c r="AE4" t="n">
-        <v>223946.7536562379</v>
+        <v>291088.2147102077</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.262361614509616e-06</v>
+        <v>4.006810528374492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.548611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>202573.5897985937</v>
+        <v>263307.1640432265</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.4925107131758</v>
+        <v>211.5637694347499</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.3294218213006</v>
+        <v>289.4708828752704</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.1106138440429</v>
+        <v>261.8441880886757</v>
       </c>
       <c r="AD5" t="n">
-        <v>162492.5107131758</v>
+        <v>211563.7694347499</v>
       </c>
       <c r="AE5" t="n">
-        <v>222329.4218213006</v>
+        <v>289470.8828752704</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.27146708698958e-06</v>
+        <v>4.022936996735941e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>201110.6138440429</v>
+        <v>261844.1880886757</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.6606399621764</v>
+        <v>310.5885387791129</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.9649459630638</v>
+        <v>424.9609409568615</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.2328528747761</v>
+        <v>384.4032651883644</v>
       </c>
       <c r="AD2" t="n">
-        <v>250660.6399621764</v>
+        <v>310588.5387791129</v>
       </c>
       <c r="AE2" t="n">
-        <v>342964.9459630637</v>
+        <v>424960.9409568615</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.702943314210756e-06</v>
+        <v>2.969784440328295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>310232.8528747761</v>
+        <v>384403.2651883644</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.8885540983205</v>
+        <v>248.8142612214275</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.1280940609415</v>
+        <v>340.4386491134912</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.1565706980238</v>
+        <v>307.947662250846</v>
       </c>
       <c r="AD3" t="n">
-        <v>198888.5540983205</v>
+        <v>248814.2612214275</v>
       </c>
       <c r="AE3" t="n">
-        <v>272128.0940609415</v>
+        <v>340438.6491134912</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018756396843869e-06</v>
+        <v>3.520534879893342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.47743055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>246156.5706980238</v>
+        <v>307947.6622508459</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.6690108102989</v>
+        <v>226.6799692794264</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.7263346772187</v>
+        <v>310.1535343824175</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.6563125607365</v>
+        <v>280.5529163642709</v>
       </c>
       <c r="AD4" t="n">
-        <v>176669.0108102988</v>
+        <v>226679.9692794264</v>
       </c>
       <c r="AE4" t="n">
-        <v>241726.3346772188</v>
+        <v>310153.5343824176</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.14928889587909e-06</v>
+        <v>3.748172160216809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>218656.3125607365</v>
+        <v>280552.9163642709</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.5123716586374</v>
+        <v>219.5233301277649</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.9343052612841</v>
+        <v>300.3615049664829</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.798820689056</v>
+        <v>271.6954244925903</v>
       </c>
       <c r="AD5" t="n">
-        <v>169512.3716586374</v>
+        <v>219523.3301277649</v>
       </c>
       <c r="AE5" t="n">
-        <v>231934.3052612841</v>
+        <v>300361.5049664829</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.203695719006375e-06</v>
+        <v>3.843052908990287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.600694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>209798.820689056</v>
+        <v>271695.4244925904</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>168.758458599078</v>
+        <v>218.7694170682055</v>
       </c>
       <c r="AB6" t="n">
-        <v>230.9027681528986</v>
+        <v>299.3299678580974</v>
       </c>
       <c r="AC6" t="n">
-        <v>208.865732034523</v>
+        <v>270.7623358380574</v>
       </c>
       <c r="AD6" t="n">
-        <v>168758.4585990779</v>
+        <v>218769.4170682055</v>
       </c>
       <c r="AE6" t="n">
-        <v>230902.7681528986</v>
+        <v>299329.9678580974</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.214859843106867e-06</v>
+        <v>3.86252216657911e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.557291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>208865.732034523</v>
+        <v>270762.3358380575</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.6161721554383</v>
+        <v>386.1448930370899</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.4210413432438</v>
+        <v>528.3404781637222</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.7738402045372</v>
+        <v>477.9164044582942</v>
       </c>
       <c r="AD2" t="n">
-        <v>303616.1721554383</v>
+        <v>386144.8930370899</v>
       </c>
       <c r="AE2" t="n">
-        <v>415421.0413432438</v>
+        <v>528340.4781637222</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.47281208244175e-06</v>
+        <v>2.503682927499551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.87152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>375773.8402045372</v>
+        <v>477916.4044582942</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.4735215156348</v>
+        <v>286.1607376434356</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.8170163792512</v>
+        <v>391.5377457645005</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.1986906056212</v>
+        <v>354.1699328354133</v>
       </c>
       <c r="AD3" t="n">
-        <v>234473.5215156348</v>
+        <v>286160.7376434356</v>
       </c>
       <c r="AE3" t="n">
-        <v>320817.0163792513</v>
+        <v>391537.7457645005</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833991964827182e-06</v>
+        <v>3.117664789860099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>290198.6906056211</v>
+        <v>354169.9328354133</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.0919572593548</v>
+        <v>261.6938325325836</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.4570845251253</v>
+        <v>358.0610467881599</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.0225838266841</v>
+        <v>323.8882030245325</v>
       </c>
       <c r="AD4" t="n">
-        <v>210091.9572593548</v>
+        <v>261693.8325325836</v>
       </c>
       <c r="AE4" t="n">
-        <v>287457.0845251253</v>
+        <v>358061.0467881599</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.966643399710191e-06</v>
+        <v>3.343163437504472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>260022.583826684</v>
+        <v>323888.2030245325</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>189.7391910004894</v>
+        <v>251.5930612344415</v>
       </c>
       <c r="AB5" t="n">
-        <v>259.609531829083</v>
+        <v>344.2407258832995</v>
       </c>
       <c r="AC5" t="n">
-        <v>234.8327624756575</v>
+        <v>311.3868741499933</v>
       </c>
       <c r="AD5" t="n">
-        <v>189739.1910004894</v>
+        <v>251593.0612344415</v>
       </c>
       <c r="AE5" t="n">
-        <v>259609.531829083</v>
+        <v>344240.7258832995</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.057697151572065e-06</v>
+        <v>3.49794878095671e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>234832.7624756575</v>
+        <v>311386.8741499933</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>185.2794767887133</v>
+        <v>236.9666034079594</v>
       </c>
       <c r="AB6" t="n">
-        <v>253.5075540958288</v>
+        <v>324.2281610113385</v>
       </c>
       <c r="AC6" t="n">
-        <v>229.3131489330835</v>
+        <v>293.2842803815948</v>
       </c>
       <c r="AD6" t="n">
-        <v>185279.4767887133</v>
+        <v>236966.6034079594</v>
       </c>
       <c r="AE6" t="n">
-        <v>253507.5540958288</v>
+        <v>324228.1610113385</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.086142625990929e-06</v>
+        <v>3.546304202205743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>229313.1489330835</v>
+        <v>293284.2803815948</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.2431788301291</v>
+        <v>232.9303054493752</v>
       </c>
       <c r="AB7" t="n">
-        <v>247.9849131599982</v>
+        <v>318.7055200755079</v>
       </c>
       <c r="AC7" t="n">
-        <v>224.3175810970916</v>
+        <v>288.2887125456028</v>
       </c>
       <c r="AD7" t="n">
-        <v>181243.1788301291</v>
+        <v>232930.3054493752</v>
       </c>
       <c r="AE7" t="n">
-        <v>247984.9131599982</v>
+        <v>318705.5200755079</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.105623893831144e-06</v>
+        <v>3.579421066386222e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>224317.5810970916</v>
+        <v>288288.7125456028</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>181.4291449104726</v>
+        <v>233.1162715297187</v>
       </c>
       <c r="AB8" t="n">
-        <v>248.2393601553685</v>
+        <v>318.9599670708782</v>
       </c>
       <c r="AC8" t="n">
-        <v>224.5477440283425</v>
+        <v>288.5188754768537</v>
       </c>
       <c r="AD8" t="n">
-        <v>181429.1449104726</v>
+        <v>233116.2715297187</v>
       </c>
       <c r="AE8" t="n">
-        <v>248239.3601553685</v>
+        <v>318959.9670708783</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.105694478134913e-06</v>
+        <v>3.579541055024558e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>224547.7440283425</v>
+        <v>288518.8754768537</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.8588441952473</v>
+        <v>251.8996655095677</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.9286642452769</v>
+        <v>344.6602353789529</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.3081040086286</v>
+        <v>311.766346248167</v>
       </c>
       <c r="AD2" t="n">
-        <v>203858.8441952473</v>
+        <v>251899.6655095677</v>
       </c>
       <c r="AE2" t="n">
-        <v>278928.6642452769</v>
+        <v>344660.2353789529</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.97498630278068e-06</v>
+        <v>3.561367664558629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.18923611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>252308.1040086286</v>
+        <v>311766.346248167</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.4705224149012</v>
+        <v>210.5112542206705</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.299336461546</v>
+        <v>288.0307851256736</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.0833997887981</v>
+        <v>260.54153124711</v>
       </c>
       <c r="AD3" t="n">
-        <v>162470.5224149011</v>
+        <v>210511.2542206705</v>
       </c>
       <c r="AE3" t="n">
-        <v>222299.336461546</v>
+        <v>288030.7851256736</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.256378134014204e-06</v>
+        <v>4.068783724819427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>201083.3997887982</v>
+        <v>260541.53124711</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.4333920539522</v>
+        <v>204.4741238597215</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.0390683623056</v>
+        <v>279.7705170264331</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.6114800835875</v>
+        <v>253.0696115418993</v>
       </c>
       <c r="AD4" t="n">
-        <v>156433.3920539522</v>
+        <v>204474.1238597215</v>
       </c>
       <c r="AE4" t="n">
-        <v>214039.0683623056</v>
+        <v>279770.5170264331</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.321132617836735e-06</v>
+        <v>4.185551382648778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.522569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>193611.4800835875</v>
+        <v>253069.6115418993</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.4408923674684</v>
+        <v>213.6142435188284</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.1000159078916</v>
+        <v>292.2764319776375</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.2350319336003</v>
+        <v>264.3819795223266</v>
       </c>
       <c r="AD2" t="n">
-        <v>167440.8923674684</v>
+        <v>213614.2435188284</v>
       </c>
       <c r="AE2" t="n">
-        <v>229100.0159078916</v>
+        <v>292276.4319776375</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.234211827961551e-06</v>
+        <v>4.168325121390539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.30381944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>207235.0319336003</v>
+        <v>264381.9795223266</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.8412634721842</v>
+        <v>192.0998659695649</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.5464507450047</v>
+        <v>262.8395114673999</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.5020175511606</v>
+        <v>237.7544773905992</v>
       </c>
       <c r="AD3" t="n">
-        <v>145841.2634721842</v>
+        <v>192099.8659695649</v>
       </c>
       <c r="AE3" t="n">
-        <v>199546.4507450047</v>
+        <v>262839.5114673998</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.410824438163439e-06</v>
+        <v>4.497827799088992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.548611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>180502.0175511606</v>
+        <v>237754.4773905992</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.7917345835083</v>
+        <v>184.6258478159712</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.2692184331437</v>
+        <v>252.6132300992483</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.0147526739725</v>
+        <v>228.5041779635448</v>
       </c>
       <c r="AD2" t="n">
-        <v>139791.7345835083</v>
+        <v>184625.8478159712</v>
       </c>
       <c r="AE2" t="n">
-        <v>191269.2184331437</v>
+        <v>252613.2300992484</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.446189669466544e-06</v>
+        <v>4.704113447922364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.730902777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>173014.7526739725</v>
+        <v>228504.1779635448</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.456237680499</v>
+        <v>183.2903509129619</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.4419326524821</v>
+        <v>250.7859443185868</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.361860483605</v>
+        <v>226.8512857731773</v>
       </c>
       <c r="AD3" t="n">
-        <v>138456.237680499</v>
+        <v>183290.3509129619</v>
       </c>
       <c r="AE3" t="n">
-        <v>189441.9326524821</v>
+        <v>250785.9443185868</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.468214318005346e-06</v>
+        <v>4.746467663815909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.644097222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>171361.860483605</v>
+        <v>226851.2857731773</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.7550315394632</v>
+        <v>174.6801139439552</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.6412908908573</v>
+        <v>239.0050382407516</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.3057010234377</v>
+        <v>216.1947328368015</v>
       </c>
       <c r="AD2" t="n">
-        <v>132755.0315394632</v>
+        <v>174680.1139439552</v>
       </c>
       <c r="AE2" t="n">
-        <v>181641.2908908573</v>
+        <v>239005.0382407517</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.481700346670668e-06</v>
+        <v>5.118753450868603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.29513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>164305.7010234377</v>
+        <v>216194.7328368015</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.8775055368849</v>
+        <v>301.2536100119917</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.9474739578423</v>
+        <v>412.1884795896944</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.3623115311013</v>
+        <v>372.8497896078177</v>
       </c>
       <c r="AD2" t="n">
-        <v>241877.5055368849</v>
+        <v>301253.6100119917</v>
       </c>
       <c r="AE2" t="n">
-        <v>330947.4739578423</v>
+        <v>412188.4795896944</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.759358858199602e-06</v>
+        <v>3.091124111063039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.14409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>299362.3115311013</v>
+        <v>372849.7896078177</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.9421329290188</v>
+        <v>241.4080114339344</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.6236941626341</v>
+        <v>330.3050914135678</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.5592573864988</v>
+        <v>298.7812370752625</v>
       </c>
       <c r="AD3" t="n">
-        <v>191942.1329290188</v>
+        <v>241408.0114339344</v>
       </c>
       <c r="AE3" t="n">
-        <v>262623.6941626341</v>
+        <v>330305.0914135678</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.07711832509551e-06</v>
+        <v>3.649414959494963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>237559.2573864988</v>
+        <v>298781.2370752625</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.4083658839949</v>
+        <v>219.9594957349312</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.1602440888931</v>
+        <v>300.958285992476</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.9077576355743</v>
+        <v>272.2352495750503</v>
       </c>
       <c r="AD4" t="n">
-        <v>170408.3658839949</v>
+        <v>219959.4957349312</v>
       </c>
       <c r="AE4" t="n">
-        <v>233160.2440888931</v>
+        <v>300958.285992476</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.200706496151329e-06</v>
+        <v>3.866554500761583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>210907.7576355743</v>
+        <v>272235.2495750503</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.4683264334669</v>
+        <v>215.0194562844032</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.4010641735249</v>
+        <v>294.1991060771078</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.7936643647581</v>
+        <v>266.1211563042341</v>
       </c>
       <c r="AD5" t="n">
-        <v>165468.3264334669</v>
+        <v>215019.4562844032</v>
       </c>
       <c r="AE5" t="n">
-        <v>226401.0641735249</v>
+        <v>294199.1060771078</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.242017442571979e-06</v>
+        <v>3.939136203997716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>204793.6643647582</v>
+        <v>266121.1563042342</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.305323610918</v>
+        <v>363.9400788172347</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.9450393652109</v>
+        <v>497.9588717408502</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.7748461345826</v>
+        <v>450.4343759115685</v>
       </c>
       <c r="AD2" t="n">
-        <v>292305.323610918</v>
+        <v>363940.0788172347</v>
       </c>
       <c r="AE2" t="n">
-        <v>399945.0393652109</v>
+        <v>497958.8717408502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526674213634603e-06</v>
+        <v>2.610442769083622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>361774.8461345826</v>
+        <v>450434.3759115685</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.1189761320602</v>
+        <v>279.5810759119847</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.440005873835</v>
+        <v>382.5351623093403</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.9573105765033</v>
+        <v>346.0265433100084</v>
       </c>
       <c r="AD3" t="n">
-        <v>218118.9761320602</v>
+        <v>279581.0759119847</v>
       </c>
       <c r="AE3" t="n">
-        <v>298440.0058738351</v>
+        <v>382535.1623093403</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.873516223258824e-06</v>
+        <v>3.20350395263662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>269957.3105765033</v>
+        <v>346026.5433100084</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.5997568741321</v>
+        <v>255.8040393901887</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.9424136592871</v>
+        <v>350.0023719712348</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.2251026013722</v>
+        <v>316.598636821819</v>
       </c>
       <c r="AD4" t="n">
-        <v>204599.7568741321</v>
+        <v>255804.0393901887</v>
       </c>
       <c r="AE4" t="n">
-        <v>279942.4136592872</v>
+        <v>350002.3719712347</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.007508266374939e-06</v>
+        <v>3.432615413970911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>253225.1026013722</v>
+        <v>316598.6368218189</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.0278072249168</v>
+        <v>248.404566150266</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.8996969295364</v>
+        <v>339.8780862426574</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.4769890121364</v>
+        <v>307.4405987136495</v>
       </c>
       <c r="AD5" t="n">
-        <v>187027.8072249168</v>
+        <v>248404.566150266</v>
       </c>
       <c r="AE5" t="n">
-        <v>255899.6969295364</v>
+        <v>339878.0862426574</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.068525889408694e-06</v>
+        <v>3.536948749408552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.956597222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>231476.9890121364</v>
+        <v>307440.5987136495</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>179.4860205882894</v>
+        <v>230.7755544503665</v>
       </c>
       <c r="AB6" t="n">
-        <v>245.5806917331638</v>
+        <v>315.7572946977606</v>
       </c>
       <c r="AC6" t="n">
-        <v>222.1428151888875</v>
+        <v>285.6218616600465</v>
       </c>
       <c r="AD6" t="n">
-        <v>179486.0205882894</v>
+        <v>230775.5544503665</v>
       </c>
       <c r="AE6" t="n">
-        <v>245580.6917331638</v>
+        <v>315757.2946977607</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.128333598455387e-06</v>
+        <v>3.639213266764031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.678819444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>222142.8151888875</v>
+        <v>285621.8616600465</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.9230516167949</v>
+        <v>229.212585478872</v>
       </c>
       <c r="AB7" t="n">
-        <v>243.4421686330416</v>
+        <v>313.6187715976385</v>
       </c>
       <c r="AC7" t="n">
-        <v>220.2083897320043</v>
+        <v>283.6874362031633</v>
       </c>
       <c r="AD7" t="n">
-        <v>177923.0516167949</v>
+        <v>229212.585478872</v>
       </c>
       <c r="AE7" t="n">
-        <v>243442.1686330416</v>
+        <v>313618.7715976385</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.135521910966752e-06</v>
+        <v>3.651504480075697e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.644097222222221</v>
       </c>
       <c r="AH7" t="n">
-        <v>220208.3897320043</v>
+        <v>283687.4362031633</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.7527394689879</v>
+        <v>175.4424713112746</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.3746430126853</v>
+        <v>240.048129223551</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.7781858550432</v>
+        <v>217.1382726801901</v>
       </c>
       <c r="AD2" t="n">
-        <v>134752.7394689879</v>
+        <v>175442.4713112746</v>
       </c>
       <c r="AE2" t="n">
-        <v>184374.6430126854</v>
+        <v>240048.129223551</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.372271856782571e-06</v>
+        <v>5.084871234874177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.15451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>166778.1858550432</v>
+        <v>217138.2726801901</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.3495062299236</v>
+        <v>232.5336292258276</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.2891744148022</v>
+        <v>318.1627701663305</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.2608742602067</v>
+        <v>287.7977619260028</v>
       </c>
       <c r="AD2" t="n">
-        <v>176349.5062299236</v>
+        <v>232533.6292258275</v>
       </c>
       <c r="AE2" t="n">
-        <v>241289.1744148022</v>
+        <v>318162.7701663304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.142074602602755e-06</v>
+        <v>3.946627940455344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>218260.8742602066</v>
+        <v>287797.7619260028</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.3992678976272</v>
+        <v>196.2904877730236</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.4146693679702</v>
+        <v>268.573305096075</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.9056202213397</v>
+        <v>242.9410458027854</v>
       </c>
       <c r="AD3" t="n">
-        <v>149399.2678976272</v>
+        <v>196290.4877730235</v>
       </c>
       <c r="AE3" t="n">
-        <v>204414.6693679703</v>
+        <v>268573.3050960751</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.386057485105493e-06</v>
+        <v>4.396149941186853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>184905.6202213397</v>
+        <v>242941.0458027854</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.710187718335</v>
+        <v>196.6014075937314</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.8400835834769</v>
+        <v>268.9987193115817</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.2904335011912</v>
+        <v>243.3258590826369</v>
       </c>
       <c r="AD4" t="n">
-        <v>149710.187718335</v>
+        <v>196601.4075937314</v>
       </c>
       <c r="AE4" t="n">
-        <v>204840.0835834769</v>
+        <v>268998.7193115817</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.383523073068358e-06</v>
+        <v>4.391480457992276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.513888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>185290.4335011911</v>
+        <v>243325.8590826369</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.7720826393229</v>
+        <v>270.8840758841475</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.1241503087828</v>
+        <v>370.6355431866914</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.3396699987094</v>
+        <v>335.2626071352047</v>
       </c>
       <c r="AD2" t="n">
-        <v>212772.0826393229</v>
+        <v>270884.0758841475</v>
       </c>
       <c r="AE2" t="n">
-        <v>291124.1503087828</v>
+        <v>370635.5431866914</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.902444397143412e-06</v>
+        <v>3.398578078375714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.47569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>263339.6699987095</v>
+        <v>335262.6071352047</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.1532674840273</v>
+        <v>227.2651712202974</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.4429630870247</v>
+        <v>310.9542334952046</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.3543715223047</v>
+        <v>281.277197877522</v>
       </c>
       <c r="AD3" t="n">
-        <v>169153.2674840273</v>
+        <v>227265.1712202975</v>
       </c>
       <c r="AE3" t="n">
-        <v>231442.9630870247</v>
+        <v>310954.2334952045</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.19392261563285e-06</v>
+        <v>3.919282644127884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.956597222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>209354.3715223047</v>
+        <v>281277.197877522</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.6260714336973</v>
+        <v>208.1948926382086</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.4074331407442</v>
+        <v>284.8614370178901</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.5629342586118</v>
+        <v>257.6746612745243</v>
       </c>
       <c r="AD4" t="n">
-        <v>159626.0714336974</v>
+        <v>208194.8926382086</v>
       </c>
       <c r="AE4" t="n">
-        <v>218407.4331407442</v>
+        <v>284861.43701789</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.293891066506849e-06</v>
+        <v>4.097868986088628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.522569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>197562.9342586118</v>
+        <v>257674.6612745243</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.7393425057965</v>
+        <v>208.3081637103077</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.5624156187571</v>
+        <v>285.016419495903</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.7031254264425</v>
+        <v>257.814852442355</v>
       </c>
       <c r="AD5" t="n">
-        <v>159739.3425057965</v>
+        <v>208308.1637103077</v>
       </c>
       <c r="AE5" t="n">
-        <v>218562.4156187571</v>
+        <v>285016.419495903</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.290973014090799e-06</v>
+        <v>4.092656098401802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>197703.1254264425</v>
+        <v>257814.852442355</v>
       </c>
     </row>
   </sheetData>
